--- a/ExpensePolicy/ExpensePolicy.xlsx
+++ b/ExpensePolicy/ExpensePolicy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcouk\projects\Ergo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcouk\projects\Ergo\ExpensePolicy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>The firm requires all personnel to submit their expense reports through Time and Expense Management by the suggested due dates. Compliance is the responsibility of each individual. The firm acknowledges that there may be unusual circumstances which result in the late submission of an individual’s time and expense report. However, repeated non-compliance with firm policy will be referred to functional leaders, resulting in actions that may include termination of the employee or separation from the partnership.
 Individuals can assign up to five delegates in the system to complete expense reports on their behalf. Only one delegate can enter information at a time.
@@ -88,9 +88,6 @@
     <t>Original documents must be mailed to the KPMG scanning facility</t>
   </si>
   <si>
-    <t>the firm-issued Diners Club card is the required payment method</t>
-  </si>
-  <si>
     <t>the vendor accepts the firm-issued Diners Club card</t>
   </si>
   <si>
@@ -200,6 +197,12 @@
   </si>
   <si>
     <t>∀(?x11)(taxable(reimbursement)(expense)(?x11)→∃(?x7)(receipt(?x7)∧be(require(for(?x11)))(?x7)))</t>
+  </si>
+  <si>
+    <t>∀(?x30)(expense(?x30)→∃(?x15)(payment(method(for(?x30)))(?x15)∧be(require)(?x15)∧∃(?x7)(∃(?x9)(named(Diners)(?x9)∧compound(?x7,?x9)∧card(?x7))∧be(?x7,?x15))))</t>
+  </si>
+  <si>
+    <t>the diners card is the required payment method for an expense</t>
   </si>
 </sst>
 </file>
@@ -522,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,19 +544,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="387" customHeight="1" x14ac:dyDescent="0.25">
@@ -564,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="387" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.25">
@@ -590,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -598,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -606,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -614,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -622,29 +625,29 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="M14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -652,7 +655,7 @@
         <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -669,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -677,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="165" x14ac:dyDescent="0.25">
@@ -694,7 +697,7 @@
         <v>8</v>
       </c>
       <c r="M21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -705,53 +708,56 @@
         <v>8</v>
       </c>
       <c r="M22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" t="s">
         <v>41</v>
-      </c>
-      <c r="M23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
+      <c r="M25" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="M26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="M28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="M29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -762,48 +768,48 @@
         <v>8</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="M32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
         <v>21</v>
       </c>
-      <c r="F33" t="s">
-        <v>22</v>
-      </c>
       <c r="M33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
